--- a/DATA/collate_cultivar_data_30_percent/probe_screening/pruned_kcp_vs_days.xlsx
+++ b/DATA/collate_cultivar_data_30_percent/probe_screening/pruned_kcp_vs_days.xlsx
@@ -2528,7 +2528,7 @@
         <v>193</v>
       </c>
       <c r="C195">
-        <v>0.4482627</v>
+        <v>0.4482628</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2583,7 +2583,7 @@
         <v>198</v>
       </c>
       <c r="C200">
-        <v>0.4510371</v>
+        <v>0.4510372</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2616,7 +2616,7 @@
         <v>201</v>
       </c>
       <c r="C203">
-        <v>0.4523351</v>
+        <v>0.4523352</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2627,7 +2627,7 @@
         <v>202</v>
       </c>
       <c r="C204">
-        <v>0.452719</v>
+        <v>0.4527191</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2649,7 +2649,7 @@
         <v>204</v>
       </c>
       <c r="C206">
-        <v>0.4534241</v>
+        <v>0.4534242</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2660,7 +2660,7 @@
         <v>205</v>
       </c>
       <c r="C207">
-        <v>0.4537485</v>
+        <v>0.4537486</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2671,7 +2671,7 @@
         <v>206</v>
       </c>
       <c r="C208">
-        <v>0.454056</v>
+        <v>0.4540561</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2682,7 +2682,7 @@
         <v>207</v>
       </c>
       <c r="C209">
-        <v>0.4543479</v>
+        <v>0.454348</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2693,7 +2693,7 @@
         <v>208</v>
       </c>
       <c r="C210">
-        <v>0.4546255</v>
+        <v>0.4546256</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2704,7 +2704,7 @@
         <v>209</v>
       </c>
       <c r="C211">
-        <v>0.4548897</v>
+        <v>0.4548899</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2715,7 +2715,7 @@
         <v>210</v>
       </c>
       <c r="C212">
-        <v>0.4551416</v>
+        <v>0.4551418</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2726,7 +2726,7 @@
         <v>211</v>
       </c>
       <c r="C213">
-        <v>0.4553819</v>
+        <v>0.4553821</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2737,7 +2737,7 @@
         <v>212</v>
       </c>
       <c r="C214">
-        <v>0.4556114</v>
+        <v>0.4556117</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2748,7 +2748,7 @@
         <v>213</v>
       </c>
       <c r="C215">
-        <v>0.4558308</v>
+        <v>0.4558311</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2759,7 +2759,7 @@
         <v>214</v>
       </c>
       <c r="C216">
-        <v>0.4560404</v>
+        <v>0.4560408</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2770,7 +2770,7 @@
         <v>215</v>
       </c>
       <c r="C217">
-        <v>0.4562406</v>
+        <v>0.4562411</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2781,7 +2781,7 @@
         <v>216</v>
       </c>
       <c r="C218">
-        <v>0.4564317</v>
+        <v>0.4564322</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2792,7 +2792,7 @@
         <v>217</v>
       </c>
       <c r="C219">
-        <v>0.4566138</v>
+        <v>0.4566144</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2803,7 +2803,7 @@
         <v>218</v>
       </c>
       <c r="C220">
-        <v>0.4567868</v>
+        <v>0.4567875</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2814,7 +2814,7 @@
         <v>219</v>
       </c>
       <c r="C221">
-        <v>0.4569505</v>
+        <v>0.4569514</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2825,7 +2825,7 @@
         <v>220</v>
       </c>
       <c r="C222">
-        <v>0.4571048</v>
+        <v>0.4571058</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2836,7 +2836,7 @@
         <v>221</v>
       </c>
       <c r="C223">
-        <v>0.4572492</v>
+        <v>0.4572503</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2847,7 +2847,7 @@
         <v>222</v>
       </c>
       <c r="C224">
-        <v>0.4573832</v>
+        <v>0.4573844</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2858,7 +2858,7 @@
         <v>223</v>
       </c>
       <c r="C225">
-        <v>0.457506</v>
+        <v>0.4575074</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2869,7 +2869,7 @@
         <v>224</v>
       </c>
       <c r="C226">
-        <v>0.457617</v>
+        <v>0.4576186</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2880,7 +2880,7 @@
         <v>225</v>
       </c>
       <c r="C227">
-        <v>0.4577152</v>
+        <v>0.457717</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2891,7 +2891,7 @@
         <v>226</v>
       </c>
       <c r="C228">
-        <v>0.4577995</v>
+        <v>0.4578016</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2902,7 +2902,7 @@
         <v>227</v>
       </c>
       <c r="C229">
-        <v>0.4578689</v>
+        <v>0.4578713</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2913,7 +2913,7 @@
         <v>228</v>
       </c>
       <c r="C230">
-        <v>0.4579221</v>
+        <v>0.4579248</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2924,7 +2924,7 @@
         <v>229</v>
       </c>
       <c r="C231">
-        <v>0.4579577</v>
+        <v>0.4579608</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2935,7 +2935,7 @@
         <v>230</v>
       </c>
       <c r="C232">
-        <v>0.4579742</v>
+        <v>0.4579777</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2946,7 +2946,7 @@
         <v>231</v>
       </c>
       <c r="C233">
-        <v>0.4579702</v>
+        <v>0.4579741</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2957,7 +2957,7 @@
         <v>232</v>
       </c>
       <c r="C234">
-        <v>0.4579439</v>
+        <v>0.4579482</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2968,7 +2968,7 @@
         <v>233</v>
       </c>
       <c r="C235">
-        <v>0.4578935</v>
+        <v>0.4578984</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2979,7 +2979,7 @@
         <v>234</v>
       </c>
       <c r="C236">
-        <v>0.4578174</v>
+        <v>0.4578228</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2990,7 +2990,7 @@
         <v>235</v>
       </c>
       <c r="C237">
-        <v>0.4577136</v>
+        <v>0.4577196</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3001,7 +3001,7 @@
         <v>236</v>
       </c>
       <c r="C238">
-        <v>0.4575803</v>
+        <v>0.4575868</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3012,7 +3012,7 @@
         <v>237</v>
       </c>
       <c r="C239">
-        <v>0.4574153</v>
+        <v>0.4574225</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3023,7 +3023,7 @@
         <v>238</v>
       </c>
       <c r="C240">
-        <v>0.4572168</v>
+        <v>0.4572246</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3034,7 +3034,7 @@
         <v>239</v>
       </c>
       <c r="C241">
-        <v>0.4569826</v>
+        <v>0.4569911</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3045,7 +3045,7 @@
         <v>240</v>
       </c>
       <c r="C242">
-        <v>0.4567108</v>
+        <v>0.4567199</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3056,7 +3056,7 @@
         <v>241</v>
       </c>
       <c r="C243">
-        <v>0.4563992</v>
+        <v>0.456409</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3067,7 +3067,7 @@
         <v>242</v>
       </c>
       <c r="C244">
-        <v>0.4560458</v>
+        <v>0.4560563</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3078,7 +3078,7 @@
         <v>243</v>
       </c>
       <c r="C245">
-        <v>0.4556486</v>
+        <v>0.4556596</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3089,7 +3089,7 @@
         <v>244</v>
       </c>
       <c r="C246">
-        <v>0.4552055</v>
+        <v>0.4552171</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3100,7 +3100,7 @@
         <v>245</v>
       </c>
       <c r="C247">
-        <v>0.4547146</v>
+        <v>0.4547266</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3111,7 +3111,7 @@
         <v>246</v>
       </c>
       <c r="C248">
-        <v>0.4541738</v>
+        <v>0.4541861</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3122,7 +3122,7 @@
         <v>247</v>
       </c>
       <c r="C249">
-        <v>0.4535814</v>
+        <v>0.4535938</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3133,7 +3133,7 @@
         <v>248</v>
       </c>
       <c r="C250">
-        <v>0.4529353</v>
+        <v>0.4529477</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3144,7 +3144,7 @@
         <v>249</v>
       </c>
       <c r="C251">
-        <v>0.452234</v>
+        <v>0.452246</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3155,7 +3155,7 @@
         <v>250</v>
       </c>
       <c r="C252">
-        <v>0.4514756</v>
+        <v>0.4514869</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3166,7 +3166,7 @@
         <v>251</v>
       </c>
       <c r="C253">
-        <v>0.4506585</v>
+        <v>0.4506688</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3177,7 +3177,7 @@
         <v>252</v>
       </c>
       <c r="C254">
-        <v>0.4497812</v>
+        <v>0.44979</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3188,7 +3188,7 @@
         <v>253</v>
       </c>
       <c r="C255">
-        <v>0.4488422</v>
+        <v>0.448849</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3199,7 +3199,7 @@
         <v>254</v>
       </c>
       <c r="C256">
-        <v>0.4478402</v>
+        <v>0.4478443</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3210,7 +3210,7 @@
         <v>255</v>
       </c>
       <c r="C257">
-        <v>0.4467739</v>
+        <v>0.4467745</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3221,7 +3221,7 @@
         <v>256</v>
       </c>
       <c r="C258">
-        <v>0.445642</v>
+        <v>0.4456384</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3232,7 +3232,7 @@
         <v>257</v>
       </c>
       <c r="C259">
-        <v>0.4444436</v>
+        <v>0.4444346</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3243,7 +3243,7 @@
         <v>258</v>
       </c>
       <c r="C260">
-        <v>0.4431776</v>
+        <v>0.4431622</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3254,7 +3254,7 @@
         <v>259</v>
       </c>
       <c r="C261">
-        <v>0.4418431</v>
+        <v>0.4418201</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3265,7 +3265,7 @@
         <v>260</v>
       </c>
       <c r="C262">
-        <v>0.4404393</v>
+        <v>0.4404072</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3276,7 +3276,7 @@
         <v>261</v>
       </c>
       <c r="C263">
-        <v>0.4389656</v>
+        <v>0.4389228</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3287,7 +3287,7 @@
         <v>262</v>
       </c>
       <c r="C264">
-        <v>0.4374212</v>
+        <v>0.437366</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3298,7 +3298,7 @@
         <v>263</v>
       </c>
       <c r="C265">
-        <v>0.4358057</v>
+        <v>0.4357361</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3309,7 +3309,7 @@
         <v>264</v>
       </c>
       <c r="C266">
-        <v>0.4341187</v>
+        <v>0.4340326</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3320,7 +3320,7 @@
         <v>265</v>
       </c>
       <c r="C267">
-        <v>0.4323598</v>
+        <v>0.4322547</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3331,7 +3331,7 @@
         <v>266</v>
       </c>
       <c r="C268">
-        <v>0.4305287</v>
+        <v>0.4304021</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3342,7 +3342,7 @@
         <v>267</v>
       </c>
       <c r="C269">
-        <v>0.4286252</v>
+        <v>0.4284743</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3353,7 +3353,7 @@
         <v>268</v>
       </c>
       <c r="C270">
-        <v>0.4266491</v>
+        <v>0.426471</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3364,7 +3364,7 @@
         <v>269</v>
       </c>
       <c r="C271">
-        <v>0.4246005</v>
+        <v>0.4243917</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3375,7 +3375,7 @@
         <v>270</v>
       </c>
       <c r="C272">
-        <v>0.4224792</v>
+        <v>0.4222364</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3386,7 +3386,7 @@
         <v>271</v>
       </c>
       <c r="C273">
-        <v>0.4202854</v>
+        <v>0.4200047</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3397,7 +3397,7 @@
         <v>272</v>
       </c>
       <c r="C274">
-        <v>0.418019</v>
+        <v>0.4176966</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3408,7 +3408,7 @@
         <v>273</v>
       </c>
       <c r="C275">
-        <v>0.4156802</v>
+        <v>0.4153118</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3419,7 +3419,7 @@
         <v>274</v>
       </c>
       <c r="C276">
-        <v>0.4132692</v>
+        <v>0.4128504</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3430,7 +3430,7 @@
         <v>275</v>
       </c>
       <c r="C277">
-        <v>0.4107861</v>
+        <v>0.4103123</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3441,7 +3441,7 @@
         <v>276</v>
       </c>
       <c r="C278">
-        <v>0.4082311</v>
+        <v>0.4076974</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3452,7 +3452,7 @@
         <v>277</v>
       </c>
       <c r="C279">
-        <v>0.4056044</v>
+        <v>0.4050058</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3463,7 +3463,7 @@
         <v>278</v>
       </c>
       <c r="C280">
-        <v>0.4029063</v>
+        <v>0.4022376</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3474,7 +3474,7 @@
         <v>279</v>
       </c>
       <c r="C281">
-        <v>0.4001368</v>
+        <v>0.3993927</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3485,7 +3485,7 @@
         <v>280</v>
       </c>
       <c r="C282">
-        <v>0.3972963</v>
+        <v>0.3964712</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3496,7 +3496,7 @@
         <v>281</v>
       </c>
       <c r="C283">
-        <v>0.3943848</v>
+        <v>0.3934733</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3507,7 +3507,7 @@
         <v>282</v>
       </c>
       <c r="C284">
-        <v>0.3914026</v>
+        <v>0.3903989</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3518,7 +3518,7 @@
         <v>283</v>
       </c>
       <c r="C285">
-        <v>0.3883497</v>
+        <v>0.3872482</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3529,7 +3529,7 @@
         <v>284</v>
       </c>
       <c r="C286">
-        <v>0.3852263</v>
+        <v>0.3840212</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3540,7 +3540,7 @@
         <v>285</v>
       </c>
       <c r="C287">
-        <v>0.3820323</v>
+        <v>0.3807181</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3551,7 +3551,7 @@
         <v>286</v>
       </c>
       <c r="C288">
-        <v>0.3787677</v>
+        <v>0.3773389</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3562,7 +3562,7 @@
         <v>287</v>
       </c>
       <c r="C289">
-        <v>0.3754326</v>
+        <v>0.3738837</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3573,7 +3573,7 @@
         <v>288</v>
       </c>
       <c r="C290">
-        <v>0.3720267</v>
+        <v>0.3703525</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3584,7 +3584,7 @@
         <v>289</v>
       </c>
       <c r="C291">
-        <v>0.36855</v>
+        <v>0.3667455</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3595,7 +3595,7 @@
         <v>290</v>
       </c>
       <c r="C292">
-        <v>0.3650023</v>
+        <v>0.3630627</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3606,7 +3606,7 @@
         <v>291</v>
       </c>
       <c r="C293">
-        <v>0.3613833</v>
+        <v>0.3593043</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3617,7 +3617,7 @@
         <v>292</v>
       </c>
       <c r="C294">
-        <v>0.3576927</v>
+        <v>0.3554702</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3628,7 +3628,7 @@
         <v>293</v>
       </c>
       <c r="C295">
-        <v>0.3539302</v>
+        <v>0.3515606</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3639,7 +3639,7 @@
         <v>294</v>
       </c>
       <c r="C296">
-        <v>0.3500954</v>
+        <v>0.3475758</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3650,7 +3650,7 @@
         <v>295</v>
       </c>
       <c r="C297">
-        <v>0.3461882</v>
+        <v>0.3435158</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3661,7 +3661,7 @@
         <v>296</v>
       </c>
       <c r="C298">
-        <v>0.342208</v>
+        <v>0.339381</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3672,7 +3672,7 @@
         <v>297</v>
       </c>
       <c r="C299">
-        <v>0.3381546</v>
+        <v>0.3351718</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3683,7 +3683,7 @@
         <v>298</v>
       </c>
       <c r="C300">
-        <v>0.3340278</v>
+        <v>0.3308885</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3694,7 +3694,7 @@
         <v>299</v>
       </c>
       <c r="C301">
-        <v>0.3298274</v>
+        <v>0.3265319</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3705,7 +3705,7 @@
         <v>300</v>
       </c>
       <c r="C302">
-        <v>0.3255534</v>
+        <v>0.3221026</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3716,7 +3716,7 @@
         <v>301</v>
       </c>
       <c r="C303">
-        <v>0.3212058</v>
+        <v>0.3176017</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3727,7 +3727,7 @@
         <v>302</v>
       </c>
       <c r="C304">
-        <v>0.316785</v>
+        <v>0.3130302</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3738,7 +3738,7 @@
         <v>303</v>
       </c>
       <c r="C305">
-        <v>0.3122915</v>
+        <v>0.3083896</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3749,7 +3749,7 @@
         <v>304</v>
       </c>
       <c r="C306">
-        <v>0.307726</v>
+        <v>0.3036816</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3760,7 +3760,7 @@
         <v>305</v>
       </c>
       <c r="C307">
-        <v>0.3030896</v>
+        <v>0.2989082</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3771,7 +3771,7 @@
         <v>306</v>
       </c>
       <c r="C308">
-        <v>0.2983839</v>
+        <v>0.2940719</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3782,7 +3782,7 @@
         <v>307</v>
       </c>
       <c r="C309">
-        <v>0.2936105</v>
+        <v>0.2891754</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3793,7 +3793,7 @@
         <v>308</v>
       </c>
       <c r="C310">
-        <v>0.2887718</v>
+        <v>0.2842221</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3804,7 +3804,7 @@
         <v>309</v>
       </c>
       <c r="C311">
-        <v>0.2838707</v>
+        <v>0.2792156</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3815,7 +3815,7 @@
         <v>310</v>
       </c>
       <c r="C312">
-        <v>0.2789104</v>
+        <v>0.2741601</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3826,7 +3826,7 @@
         <v>311</v>
       </c>
       <c r="C313">
-        <v>0.2738948</v>
+        <v>0.2690605</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3837,7 +3837,7 @@
         <v>312</v>
       </c>
       <c r="C314">
-        <v>0.2688284</v>
+        <v>0.2639218</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3848,7 +3848,7 @@
         <v>313</v>
       </c>
       <c r="C315">
-        <v>0.2637162</v>
+        <v>0.25875</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3859,7 +3859,7 @@
         <v>314</v>
       </c>
       <c r="C316">
-        <v>0.2585641</v>
+        <v>0.2535515</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3870,7 +3870,7 @@
         <v>315</v>
       </c>
       <c r="C317">
-        <v>0.2533784</v>
+        <v>0.2483331</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3881,7 +3881,7 @@
         <v>316</v>
       </c>
       <c r="C318">
-        <v>0.2481661</v>
+        <v>0.2431022</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3892,7 +3892,7 @@
         <v>317</v>
       </c>
       <c r="C319">
-        <v>0.2429347</v>
+        <v>0.2378667</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3903,7 +3903,7 @@
         <v>318</v>
       </c>
       <c r="C320">
-        <v>0.2376924</v>
+        <v>0.2326351</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3914,7 +3914,7 @@
         <v>319</v>
       </c>
       <c r="C321">
-        <v>0.2324479</v>
+        <v>0.2274159</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3925,7 +3925,7 @@
         <v>320</v>
       </c>
       <c r="C322">
-        <v>0.2272104</v>
+        <v>0.2222183</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3936,7 +3936,7 @@
         <v>321</v>
       </c>
       <c r="C323">
-        <v>0.2219894</v>
+        <v>0.2170515</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3947,7 +3947,7 @@
         <v>322</v>
       </c>
       <c r="C324">
-        <v>0.2167947</v>
+        <v>0.211925</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3958,7 +3958,7 @@
         <v>323</v>
       </c>
       <c r="C325">
-        <v>0.2116364</v>
+        <v>0.2068483</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3969,7 +3969,7 @@
         <v>324</v>
       </c>
       <c r="C326">
-        <v>0.2065246</v>
+        <v>0.201831</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3980,7 +3980,7 @@
         <v>325</v>
       </c>
       <c r="C327">
-        <v>0.2014695</v>
+        <v>0.1968823</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3991,7 +3991,7 @@
         <v>326</v>
       </c>
       <c r="C328">
-        <v>0.1964812</v>
+        <v>0.1920114</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4002,7 +4002,7 @@
         <v>327</v>
       </c>
       <c r="C329">
-        <v>0.1915695</v>
+        <v>0.1872272</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4013,7 +4013,7 @@
         <v>328</v>
       </c>
       <c r="C330">
-        <v>0.1867439</v>
+        <v>0.1825381</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4024,7 +4024,7 @@
         <v>329</v>
       </c>
       <c r="C331">
-        <v>0.1820133</v>
+        <v>0.1779519</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4035,7 +4035,7 @@
         <v>330</v>
       </c>
       <c r="C332">
-        <v>0.1773864</v>
+        <v>0.173476</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4046,7 +4046,7 @@
         <v>331</v>
       </c>
       <c r="C333">
-        <v>0.172871</v>
+        <v>0.169117</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4057,7 +4057,7 @@
         <v>332</v>
       </c>
       <c r="C334">
-        <v>0.1684744</v>
+        <v>0.1648809</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4068,7 +4068,7 @@
         <v>333</v>
       </c>
       <c r="C335">
-        <v>0.1642028</v>
+        <v>0.1607729</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4079,7 +4079,7 @@
         <v>334</v>
       </c>
       <c r="C336">
-        <v>0.1600619</v>
+        <v>0.1567975</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4090,7 +4090,7 @@
         <v>335</v>
       </c>
       <c r="C337">
-        <v>0.1560565</v>
+        <v>0.1529581</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4101,7 +4101,7 @@
         <v>336</v>
       </c>
       <c r="C338">
-        <v>0.1521905</v>
+        <v>0.1492577</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4112,7 +4112,7 @@
         <v>337</v>
       </c>
       <c r="C339">
-        <v>0.1484668</v>
+        <v>0.1456982</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4123,7 +4123,7 @@
         <v>338</v>
       </c>
       <c r="C340">
-        <v>0.1448876</v>
+        <v>0.1422809</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4134,7 +4134,7 @@
         <v>339</v>
       </c>
       <c r="C341">
-        <v>0.1414543</v>
+        <v>0.1390063</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4145,7 +4145,7 @@
         <v>340</v>
       </c>
       <c r="C342">
-        <v>0.1381673</v>
+        <v>0.1358741</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4156,7 +4156,7 @@
         <v>341</v>
       </c>
       <c r="C343">
-        <v>0.1350263</v>
+        <v>0.1328835</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4167,7 +4167,7 @@
         <v>342</v>
       </c>
       <c r="C344">
-        <v>0.1320305</v>
+        <v>0.1300329</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4178,7 +4178,7 @@
         <v>343</v>
       </c>
       <c r="C345">
-        <v>0.1291781</v>
+        <v>0.1273202</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4189,7 +4189,7 @@
         <v>344</v>
       </c>
       <c r="C346">
-        <v>0.126467</v>
+        <v>0.124743</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4200,7 +4200,7 @@
         <v>345</v>
       </c>
       <c r="C347">
-        <v>0.1238944</v>
+        <v>0.1222981</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4211,7 +4211,7 @@
         <v>346</v>
       </c>
       <c r="C348">
-        <v>0.1214571</v>
+        <v>0.1199823</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4222,7 +4222,7 @@
         <v>347</v>
       </c>
       <c r="C349">
-        <v>0.1191515</v>
+        <v>0.1177918</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4233,7 +4233,7 @@
         <v>348</v>
       </c>
       <c r="C350">
-        <v>0.1169738</v>
+        <v>0.1157226</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4244,7 +4244,7 @@
         <v>349</v>
       </c>
       <c r="C351">
-        <v>0.1149195</v>
+        <v>0.1137706</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4255,7 +4255,7 @@
         <v>350</v>
       </c>
       <c r="C352">
-        <v>0.1129845</v>
+        <v>0.1119314</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4266,7 +4266,7 @@
         <v>351</v>
       </c>
       <c r="C353">
-        <v>0.111164</v>
+        <v>0.1102006</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4277,7 +4277,7 @@
         <v>352</v>
       </c>
       <c r="C354">
-        <v>0.1094533</v>
+        <v>0.1085736</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4288,7 +4288,7 @@
         <v>353</v>
       </c>
       <c r="C355">
-        <v>0.1078478</v>
+        <v>0.1070458</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4299,7 +4299,7 @@
         <v>354</v>
       </c>
       <c r="C356">
-        <v>0.1063427</v>
+        <v>0.1056128</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4310,7 +4310,7 @@
         <v>355</v>
       </c>
       <c r="C357">
-        <v>0.1049331</v>
+        <v>0.10427</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4321,7 +4321,7 @@
         <v>356</v>
       </c>
       <c r="C358">
-        <v>0.1036144</v>
+        <v>0.103013</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4332,7 +4332,7 @@
         <v>357</v>
       </c>
       <c r="C359">
-        <v>0.102382</v>
+        <v>0.1018373</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4343,7 +4343,7 @@
         <v>358</v>
       </c>
       <c r="C360">
-        <v>0.1012312</v>
+        <v>0.1007386</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4354,7 +4354,7 @@
         <v>359</v>
       </c>
       <c r="C361">
-        <v>0.1001576</v>
+        <v>0.09971289999999999</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4365,7 +4365,7 @@
         <v>360</v>
       </c>
       <c r="C362">
-        <v>0.099157</v>
+        <v>0.098756</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4376,7 +4376,7 @@
         <v>361</v>
       </c>
       <c r="C363">
-        <v>0.0982251</v>
+        <v>0.0978641</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4387,7 +4387,7 @@
         <v>362</v>
       </c>
       <c r="C364">
-        <v>0.0973579</v>
+        <v>0.09703340000000001</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4398,7 +4398,7 @@
         <v>363</v>
       </c>
       <c r="C365">
-        <v>0.0965517</v>
+        <v>0.09626029999999999</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4409,7 +4409,7 @@
         <v>364</v>
       </c>
       <c r="C366">
-        <v>0.0958025</v>
+        <v>0.0955413</v>
       </c>
     </row>
   </sheetData>
